--- a/measured_params.xlsx
+++ b/measured_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/martijn_spaepen_student_kuleuven_be/Documents/KU Leuven/3/Semester 2/Beweging/8barlinkage/8barlinkage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{B16D7716-0687-420C-B8CD-5745487DA035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D05B4E7-82FB-4B28-BBF0-204E1BDA92DF}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{B16D7716-0687-420C-B8CD-5745487DA035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD28410F-9670-4122-B20C-528AF1B5F96B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{89A5C968-9FA3-43E4-BCF1-532815C9E360}"/>
+    <workbookView xWindow="2760" yWindow="1332" windowWidth="17280" windowHeight="8964" xr2:uid="{89A5C968-9FA3-43E4-BCF1-532815C9E360}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>r1</t>
   </si>
@@ -74,9 +74,6 @@
     <t>r12</t>
   </si>
   <si>
-    <t>width</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
   </si>
   <si>
     <t>alpha5</t>
-  </si>
-  <si>
-    <t>height</t>
   </si>
   <si>
     <t>DB</t>
@@ -165,6 +159,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,7 +301,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -312,9 +308,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Controlecel" xfId="1" builtinId="23"/>
@@ -331,6 +328,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,369 +651,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5996E3EF-59EC-477C-9E23-C67334DC7606}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="8.88671875" style="11"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>196</v>
-      </c>
-      <c r="D2">
-        <v>91</v>
-      </c>
-      <c r="E2" s="11">
-        <f>SQRT(C2^2+D2^2)</f>
-        <v>216.09488656606385</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.18770000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="10">
+        <v>2.2980999999999998</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.14166000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>91</v>
-      </c>
-      <c r="D3">
-        <v>448</v>
-      </c>
-      <c r="E3" s="11">
-        <f>SQRT(C3^2+D3^2)</f>
-        <v>457.14877228315947</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.67410000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="10">
+        <v>6.4134000000000002</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.70548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>216</v>
-      </c>
-      <c r="D4">
-        <v>71</v>
+      <c r="C4" s="10">
+        <v>3.3544</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="11">
-        <f t="shared" ref="E3:E20" si="0">SQRT(C4^2+D4^2)</f>
-        <v>227.36974292988063</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1.8090999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.3367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>78</v>
-      </c>
-      <c r="D5">
-        <v>423</v>
-      </c>
-      <c r="E5" s="11">
-        <f>SQRT(C5^2+D5^2)</f>
-        <v>430.13137527969292</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.42420000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="10">
+        <v>6.4973000000000001</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.20319999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <v>204</v>
-      </c>
-      <c r="D6">
-        <v>269</v>
-      </c>
-      <c r="E6" s="11">
-        <f>SQRT(C6^2+D6^2)</f>
-        <v>337.60479854409652</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1.3674999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="10">
+        <v>3.4316</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.43130000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <v>54</v>
-      </c>
-      <c r="D7">
-        <v>360</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="0"/>
-        <v>364.02747149082035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="10">
+        <v>6.2862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>79</v>
-      </c>
-      <c r="D8">
-        <v>130</v>
-      </c>
-      <c r="E8" s="11">
-        <f>SQRT(C8^2+D8^2)</f>
-        <v>152.12166183683374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="10">
+        <v>2.5442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <v>183</v>
-      </c>
-      <c r="D9">
-        <v>227</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="0"/>
-        <v>291.57846285348307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="10">
+        <v>4.3380000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <v>158</v>
-      </c>
-      <c r="D10">
-        <v>245</v>
-      </c>
-      <c r="E10" s="11">
-        <f>SQRT(C10^2+D10^2)</f>
-        <v>291.52872928752663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="10">
+        <v>5.7115999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
-        <v>186</v>
-      </c>
-      <c r="D11">
-        <v>495</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="0"/>
-        <v>528.79201960695286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="10">
+        <v>8.3091000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
-        <v>34</v>
-      </c>
-      <c r="D12">
-        <v>189</v>
-      </c>
-      <c r="E12" s="11">
-        <f>SQRT(C12^2+D12^2)</f>
-        <v>192.03385118254542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="10">
+        <v>2.9988000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
-        <v>595</v>
-      </c>
-      <c r="D13">
-        <v>230</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="0"/>
-        <v>637.90673299472235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="10">
+        <v>7.3620000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10">
+        <v>9.1835000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3.6602999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1">
-        <v>711</v>
-      </c>
-      <c r="D14">
-        <v>39</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" si="0"/>
-        <v>712.06881689904105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1.3446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1">
-        <v>405</v>
-      </c>
-      <c r="D15">
-        <v>178</v>
-      </c>
-      <c r="E15" s="11">
-        <f t="shared" si="0"/>
-        <v>442.39009934671913</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1">
-        <v>104</v>
-      </c>
-      <c r="D16">
-        <v>115</v>
-      </c>
-      <c r="E16" s="11">
-        <f t="shared" si="0"/>
-        <v>155.05160431288675</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1">
-        <v>682</v>
-      </c>
-      <c r="D17">
-        <v>151</v>
-      </c>
-      <c r="E17" s="11">
-        <f t="shared" si="0"/>
-        <v>698.51628470637672</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C17" s="10">
+        <v>6.5797999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/measured_params.xlsx
+++ b/measured_params.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/martijn_spaepen_student_kuleuven_be/Documents/KU Leuven/3/Semester 2/Beweging/8barlinkage/8barlinkage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rogiers\Documents\GitHub\8barlinkage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{B16D7716-0687-420C-B8CD-5745487DA035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD28410F-9670-4122-B20C-528AF1B5F96B}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1332" windowWidth="17280" windowHeight="8964" xr2:uid="{89A5C968-9FA3-43E4-BCF1-532815C9E360}"/>
+    <workbookView minimized="1" xWindow="2760" yWindow="1335" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>r1</t>
   </si>
@@ -153,16 +152,19 @@
   </si>
   <si>
     <t>JF</t>
+  </si>
+  <si>
+    <t>r16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,8 +316,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Controlecel" xfId="1" builtinId="23"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -650,19 +652,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5996E3EF-59EC-477C-9E23-C67334DC7606}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="3" max="3" width="8.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -673,7 +675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickTop="1">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -690,7 +692,7 @@
         <v>0.14166000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -707,7 +709,7 @@
         <v>0.70548</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -724,7 +726,7 @@
         <v>1.3367</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -741,7 +743,7 @@
         <v>0.20319999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -758,7 +760,7 @@
         <v>0.43130000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -769,7 +771,7 @@
         <v>6.2862</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -780,7 +782,7 @@
         <v>2.5442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -791,7 +793,7 @@
         <v>4.3380000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -802,7 +804,7 @@
         <v>5.7115999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -813,7 +815,7 @@
         <v>8.3091000000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -824,7 +826,7 @@
         <v>2.9988000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -835,7 +837,7 @@
         <v>7.3620000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -846,7 +848,7 @@
         <v>9.1835000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -857,23 +859,23 @@
         <v>3.6602999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="10">
         <v>1.3446</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="10">
         <v>6.5797999999999996</v>

--- a/measured_params.xlsx
+++ b/measured_params.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rogiers\Documents\GitHub\8barlinkage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/martijn_spaepen_student_kuleuven_be/Documents/KU Leuven/3/Semester 2/Beweging/8barlinkage/8barlinkage/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_0C602F1C0E6E7BE4F8FECC4310974DDE816AF09E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2760" yWindow="1335" windowWidth="17280" windowHeight="8970"/>
+    <workbookView minimized="1" xWindow="2760" yWindow="1332" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -160,11 +161,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -313,11 +314,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Controlecel" xfId="1" builtinId="23"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,10 +330,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,19 +648,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.875" style="10"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -675,7 +671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -692,7 +688,7 @@
         <v>0.14166000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -709,7 +705,7 @@
         <v>0.70548</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -722,11 +718,11 @@
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <v>1.3367</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -743,7 +739,7 @@
         <v>0.20319999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -760,7 +756,7 @@
         <v>0.43130000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -771,7 +767,7 @@
         <v>6.2862</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -782,7 +778,7 @@
         <v>2.5442</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -793,7 +789,7 @@
         <v>4.3380000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -804,7 +800,7 @@
         <v>5.7115999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -815,7 +811,7 @@
         <v>8.3091000000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -826,7 +822,7 @@
         <v>2.9988000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -837,7 +833,7 @@
         <v>7.3620000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -848,7 +844,7 @@
         <v>9.1835000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -859,7 +855,7 @@
         <v>3.6602999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -870,7 +866,7 @@
         <v>1.3446</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
